--- a/Document/벽타기 룰.xlsx
+++ b/Document/벽타기 룰.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
       <t>, 플레이어</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.04.14</t>
   </si>
   <si>
     <t>벽타기 룰 작성</t>
@@ -351,6 +348,10 @@
   </si>
   <si>
     <t>왼쪽: A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.04.15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7543,8 +7544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7570,13 +7571,13 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -7658,7 +7659,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7668,12 +7669,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -7688,25 +7689,25 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -7714,10 +7715,10 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -7774,12 +7775,12 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -7826,10 +7827,10 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
@@ -7883,23 +7884,23 @@
     <row r="59" spans="2:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
@@ -7948,7 +7949,7 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
@@ -7998,7 +7999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -8012,22 +8013,22 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -8035,18 +8036,18 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -8095,19 +8096,19 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -8179,19 +8180,19 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
